--- a/tests/timed_tb_framework.xlsx
+++ b/tests/timed_tb_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\atomica\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31123CE8-CF86-4415-8DE3-6E15B048FDB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FB3B6A-0019-4861-A6AF-45445732D950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="2235" windowWidth="29325" windowHeight="16305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Plots" sheetId="9" r:id="rId9"/>
     <sheet name="#ignore extra plots" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3114,9 +3114,6 @@
     <t>New active TB infections</t>
   </si>
   <si>
-    <t>{'New incident cases':['leu_act:flow','llu_act:flow', 'lex_act:flow', 'llx_act:flow', ]}</t>
-  </si>
-  <si>
     <t>Activated TB infections inc. relapse and immigration</t>
   </si>
   <si>
@@ -4240,6 +4237,9 @@
   </si>
   <si>
     <t>Timed</t>
+  </si>
+  <si>
+    <t>{'New incident cases':['leu_act:flow','llu_act:flow']}</t>
   </si>
 </sst>
 </file>
@@ -4927,128 +4927,128 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B1" t="s">
         <v>724</v>
       </c>
       <c r="C1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>724</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B3" t="s">
         <v>724</v>
       </c>
       <c r="C3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B4" t="s">
         <v>724</v>
       </c>
       <c r="C4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B5" t="s">
         <v>724</v>
       </c>
       <c r="C5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B6" t="s">
         <v>724</v>
       </c>
       <c r="C6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B7" t="s">
         <v>724</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
         <v>724</v>
       </c>
       <c r="C8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B9" t="s">
         <v>724</v>
       </c>
       <c r="C9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B10" t="s">
         <v>724</v>
       </c>
       <c r="C10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B12" t="s">
         <v>724</v>
       </c>
       <c r="C12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B13" t="s">
         <v>724</v>
@@ -5059,13 +5059,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B14" t="s">
         <v>724</v>
       </c>
       <c r="C14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5237,10 +5237,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5536,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>36</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>1098</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1099</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>36</v>
@@ -6388,9 +6388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6478,7 +6478,7 @@
         <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>56</v>
@@ -6743,7 +6743,7 @@
         <v>161</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>162</v>
@@ -6764,7 +6764,7 @@
         <v>163</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M6" s="10"/>
       <c r="AU6" s="6" t="s">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="L11" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>170</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B12" s="2"/>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="G13" s="10"/>
       <c r="N13" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>162</v>
@@ -8190,7 +8190,7 @@
         <v>330</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -9153,7 +9153,7 @@
   <dimension ref="A1:N279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
@@ -9207,7 +9207,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>31</v>
@@ -9219,7 +9219,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -9731,7 +9731,7 @@
         <v>461</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -10636,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>36</v>
@@ -10872,7 +10872,7 @@
         <v>37</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>12</v>
@@ -10901,7 +10901,7 @@
         <v>36</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>12</v>
@@ -10930,7 +10930,7 @@
         <v>36</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>12</v>
@@ -11231,10 +11231,10 @@
     </row>
     <row r="71" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B71" s="26" t="s">
         <v>1100</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>1101</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>548</v>
@@ -11259,7 +11259,7 @@
         <v>162</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>532</v>
@@ -11287,7 +11287,7 @@
         <v>167</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>532</v>
@@ -11636,7 +11636,7 @@
         <v>461</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K86" s="18" t="s">
         <v>22</v>
@@ -11830,7 +11830,7 @@
         <v>37</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K93" s="18" t="s">
         <v>8</v>
@@ -11857,7 +11857,7 @@
         <v>37</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K94" s="18" t="s">
         <v>8</v>
@@ -11884,7 +11884,7 @@
         <v>37</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K95" s="18" t="s">
         <v>8</v>
@@ -11911,7 +11911,7 @@
         <v>37</v>
       </c>
       <c r="J96" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K96" s="18" t="s">
         <v>8</v>
@@ -11938,7 +11938,7 @@
         <v>37</v>
       </c>
       <c r="J97" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K97" s="18" t="s">
         <v>8</v>
@@ -11965,7 +11965,7 @@
         <v>37</v>
       </c>
       <c r="J98" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K98" s="18" t="s">
         <v>8</v>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="I99" s="37"/>
       <c r="J99" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K99" s="18" t="s">
         <v>8</v>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H101" s="18" t="s">
         <v>37</v>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="I102" s="37"/>
       <c r="J102" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K102" s="18" t="s">
         <v>10</v>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="I103" s="37"/>
       <c r="J103" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K103" s="18" t="s">
         <v>10</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="I104" s="37"/>
       <c r="J104" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K104" s="18" t="s">
         <v>10</v>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="I105" s="37"/>
       <c r="J105" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K105" s="18" t="s">
         <v>10</v>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="I106" s="37"/>
       <c r="J106" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K106" s="18" t="s">
         <v>10</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="I107" s="37"/>
       <c r="J107" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K107" s="18" t="s">
         <v>10</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="I119" s="37"/>
       <c r="J119" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K119" s="18" t="s">
         <v>8</v>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I122" s="37"/>
       <c r="J122" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K122" s="18" t="s">
         <v>10</v>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="I123" s="37"/>
       <c r="J123" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K123" s="18" t="s">
         <v>10</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="I124" s="37"/>
       <c r="J124" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K124" s="18" t="s">
         <v>10</v>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I125" s="37"/>
       <c r="J125" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K125" s="18" t="s">
         <v>10</v>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="I126" s="37"/>
       <c r="J126" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K126" s="18" t="s">
         <v>10</v>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="I127" s="37"/>
       <c r="J127" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K127" s="18" t="s">
         <v>10</v>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="I139" s="37"/>
       <c r="J139" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K139" s="21" t="s">
         <v>8</v>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="I142" s="37"/>
       <c r="J142" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K142" s="21" t="s">
         <v>10</v>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="I143" s="37"/>
       <c r="J143" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K143" s="21" t="s">
         <v>10</v>
@@ -13287,7 +13287,7 @@
       </c>
       <c r="I144" s="37"/>
       <c r="J144" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K144" s="21" t="s">
         <v>10</v>
@@ -13319,7 +13319,7 @@
       </c>
       <c r="I145" s="37"/>
       <c r="J145" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K145" s="21" t="s">
         <v>10</v>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="I146" s="37"/>
       <c r="J146" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K146" s="21" t="s">
         <v>10</v>
@@ -13953,10 +13953,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="D169" s="6">
         <v>1</v>
@@ -13966,37 +13966,37 @@
       <c r="I169" s="35"/>
       <c r="J169" s="35"/>
       <c r="K169" s="18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I170" s="35"/>
       <c r="J170" s="35"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="6" t="s">
         <v>789</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>790</v>
       </c>
       <c r="D171" s="6">
         <v>30</v>
@@ -14006,47 +14006,47 @@
       <c r="I171" s="35"/>
       <c r="J171" s="35"/>
       <c r="K171" s="18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I172" s="35"/>
       <c r="J172" s="35"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G173" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>530</v>
@@ -14065,10 +14065,10 @@
     </row>
     <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>530</v>
@@ -14087,10 +14087,10 @@
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>530</v>
@@ -14109,10 +14109,10 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B178" s="23" t="s">
         <v>1090</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>1091</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>530</v>
@@ -14131,10 +14131,10 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B179" s="23" t="s">
         <v>1092</v>
-      </c>
-      <c r="B179" s="23" t="s">
-        <v>1093</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>530</v>
@@ -14153,10 +14153,10 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B180" s="23" t="s">
         <v>1094</v>
-      </c>
-      <c r="B180" s="23" t="s">
-        <v>1095</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>530</v>
@@ -14175,10 +14175,10 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>530</v>
@@ -14186,316 +14186,316 @@
       <c r="D181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="24" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>530</v>
       </c>
       <c r="D182" s="6"/>
       <c r="G182" s="24" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G183" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G184" s="24" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G185" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G187" s="24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G188" s="24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G189" s="24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G190" s="24" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G192" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G193" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G194" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G195" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G196" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G197" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G198" s="24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G199" s="24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G200" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G201" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G202" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G203" s="24" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G204" s="24" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -14504,254 +14504,254 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G206" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G207" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G208" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G209" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G210" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G211" s="24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G212" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G213" s="24" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G214" s="24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G215" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G216" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G217" s="24" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G218" s="24" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G219" s="24" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G220" s="24" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G221" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G222" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G223" s="24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -14760,254 +14760,254 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G225" s="24" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G226" s="24" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G227" s="24" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G228" s="24" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G229" s="24" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G230" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="23" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G231" s="24" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="23" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G232" s="24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="23" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G233" s="24" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G234" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G235" s="24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G236" s="24" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G237" s="24" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G238" s="24" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G239" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G240" s="24" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G241" s="24" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G242" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -15016,156 +15016,156 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G244" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G245" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G246" s="24" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G247" s="24" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G248" s="24" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G249" s="24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G250" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G251" s="24" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G252" s="24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G253" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="23" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G254" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -15174,136 +15174,136 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G256" s="24" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G257" s="24" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G258" s="24" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G259" s="24" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>530</v>
       </c>
       <c r="G261" s="24" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G263" s="24" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="24" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G264" s="24" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="24" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G265" s="24" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="G266" s="24" t="s">
         <v>1040</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="G266" s="24" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>434</v>
@@ -15315,15 +15315,15 @@
         <v>1.5</v>
       </c>
       <c r="G268" s="17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>434</v>
@@ -15335,15 +15335,15 @@
         <v>1.5</v>
       </c>
       <c r="G269" s="17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>434</v>
@@ -15355,15 +15355,15 @@
         <v>1.5</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>434</v>
@@ -15375,15 +15375,15 @@
         <v>1.5</v>
       </c>
       <c r="G271" s="17" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="17" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>434</v>
@@ -15395,15 +15395,15 @@
         <v>1.5</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>434</v>
@@ -15415,15 +15415,15 @@
         <v>1.5</v>
       </c>
       <c r="G273" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>434</v>
@@ -15435,15 +15435,15 @@
         <v>1.5</v>
       </c>
       <c r="G274" s="17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>434</v>
@@ -15455,15 +15455,15 @@
         <v>1.5</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>434</v>
@@ -15475,15 +15475,15 @@
         <v>1.5</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>434</v>
@@ -15495,15 +15495,15 @@
         <v>1.5</v>
       </c>
       <c r="G277" s="17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>434</v>
@@ -15515,15 +15515,15 @@
         <v>1.5</v>
       </c>
       <c r="G278" s="17" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>434</v>
@@ -15538,7 +15538,7 @@
         <v>1.5</v>
       </c>
       <c r="G279" s="17" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K279" s="24" t="s">
         <v>18</v>
@@ -15760,8 +15760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15877,7 +15877,7 @@
         <v>724</v>
       </c>
       <c r="C8" t="s">
-        <v>730</v>
+        <v>1105</v>
       </c>
       <c r="D8" t="s">
         <v>461</v>
@@ -15885,13 +15885,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B9" t="s">
         <v>724</v>
       </c>
       <c r="C9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D9" t="s">
         <v>451</v>
@@ -15899,7 +15899,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B10" t="s">
         <v>724</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
         <v>724</v>
@@ -15927,13 +15927,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B12" t="s">
         <v>724</v>
       </c>
       <c r="C12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -15941,13 +15941,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B13" t="s">
         <v>724</v>
       </c>
       <c r="C13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D13" t="s">
         <v>461</v>
@@ -15969,7 +15969,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B15" t="s">
         <v>724</v>
@@ -15983,13 +15983,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B16" t="s">
         <v>724</v>
       </c>
       <c r="C16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D16" t="s">
         <v>461</v>
@@ -15997,7 +15997,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B17" t="s">
         <v>724</v>
@@ -16011,7 +16011,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B18" t="s">
         <v>724</v>
@@ -16025,7 +16025,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B19" t="s">
         <v>724</v>
@@ -16039,13 +16039,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B20" t="s">
         <v>724</v>
       </c>
       <c r="C20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D20" t="s">
         <v>451</v>
@@ -16053,13 +16053,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B21" t="s">
         <v>724</v>
       </c>
       <c r="C21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D21" t="s">
         <v>451</v>
@@ -16067,13 +16067,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
         <v>724</v>
       </c>
       <c r="C22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D22" t="s">
         <v>451</v>
@@ -16081,13 +16081,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B23" t="s">
         <v>724</v>
       </c>
       <c r="C23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D23" t="s">
         <v>451</v>
@@ -16095,13 +16095,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B24" t="s">
         <v>724</v>
       </c>
       <c r="C24" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D24" t="s">
         <v>451</v>
@@ -16109,13 +16109,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B25" t="s">
         <v>724</v>
       </c>
       <c r="C25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D25" t="s">
         <v>451</v>
@@ -16123,13 +16123,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B26" t="s">
         <v>724</v>
       </c>
       <c r="C26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D26" t="s">
         <v>451</v>
@@ -16137,13 +16137,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B27" t="s">
         <v>724</v>
       </c>
       <c r="C27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D27" t="s">
         <v>451</v>
@@ -16151,13 +16151,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B28" t="s">
         <v>724</v>
       </c>
       <c r="C28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D28" t="s">
         <v>451</v>
@@ -16165,16 +16165,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>724</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D29" t="s">
         <v>1064</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1065</v>
       </c>
     </row>
   </sheetData>
